--- a/academycity/academycity/media/ms/normalization_75_40_95_35.xlsx
+++ b/academycity/academycity/media/ms/normalization_75_40_95_35.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="normalization_n1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="normalization_n2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="source_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="normalization_n1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="normalization_n2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -359,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -368,771 +369,1108 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>person_code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1053_at</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>121_at</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1320_at</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GDV</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>581REL45.CEL</t>
+          <t>min_cut</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5902972985849746</v>
+        <v>0.6</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.42454519126976</v>
+        <v>149.9382</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6949320967207672</v>
+        <v>150.9731</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06764374295377676</v>
+        <v>70.9956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>495REL45.CEL</t>
+          <t>max_cut</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.248124160808767</v>
+        <v>158.3338</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05055163451983576</v>
+        <v>158.5697</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05864712514092445</v>
+        <v>78.845</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1727AV55.CEL</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7024751060079105</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-2.967195850775335</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.844841643947308</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.06764374295377676</v>
+          <t>728REL45.CEL</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2.3000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>154.8941</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>109.7650</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.5408</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1343AV55.CEL</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.174436609652677</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-1.596569517942229</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.546525849109486</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.05016910935738443</v>
+          <t>2883AV55.CEL</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.6359</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>158.3338</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>118.7018</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.5988</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2032PR58.CEL</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.260100528848443</v>
-      </c>
-      <c r="C6" t="n">
-        <v>-0.8100465997946402</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.629016230539913</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.06764374295377676</v>
+          <t>2013PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>155.8359</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>128.4325</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.4765</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>3118PR58.CEL</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.312949640287769</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-5.786220151120219</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.6339465436848677</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.06764374295377676</v>
+          <t>2721PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.9150</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>168.1939</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>138.8446</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.9843</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1823PR58.CEL</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.663240268712181</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-4.220467051049138</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.548067368206488</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.06228861330326944</v>
+          <t>Set983000OUT98.CEL</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.9255</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>185.7043</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>144.8195</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.6318</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2614PR58.CEL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.218459669350613</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-3.915633309638509</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.080872423369939</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.02570462232243517</v>
+          <t>4471GA104NEW.CEL</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.5785</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>160.9612</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>107.0175</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.9717</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Set982111OUT98.CEL</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3.480394492353136</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-4.109878103362017</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.914133564348867</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.06764374295377676</v>
+          <t>4539GA104NEW.CEL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.5873</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>189.0889</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>118.9119</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.1470</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Set983049OUT98new.CEL</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1.959347753585213</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-5.038188136798023</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.063622697276224</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.06764374295377676</v>
+          <t>4560GA104NEW.CEL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2.5320</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>160.1679</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>121.2276</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.4798</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Set984830OUT98.CEL</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1.873362237362429</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-4.772148066240144</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8556832369353068</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.02356257046223224</v>
+          <t>4339GA108.CEL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.0784</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>179.1582</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>119.7520</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.0204</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>4738GA104NEW.CEL</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.840654628614991</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-2.821894005212847</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.023288404209239</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.06764374295377676</v>
+          <t>4436GA108.CEL</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>166.3881</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>112.7000</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.3444</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>5129GA104NEW.CEL</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>11.46560102911049</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.701537529947593</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7.521339210640303</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.05843291995490416</v>
+          <t>4531GA108.CEL</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4.9090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>165.6662</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>114.7210</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.7122</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>4447GA108.CEL</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7.463862022964409</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-1.812363425743089</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2.432861110403343</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.06764374295377676</v>
+          <t>8610BASL169.CEL</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.3546</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>173.7872</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>129.5363</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.0278</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>5016GA108.CEL</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>5.245545285625804</v>
-      </c>
-      <c r="C16" t="n">
-        <v>-3.097504146591886</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.448671236018039</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.05843291995490416</v>
+          <t>8656BASL172.CEL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3.6809</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>246.1988</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>186.6888</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>130.0336</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1021CIS150.CEL</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.158535423316978</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-4.044993813021601</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-0.06764374295377676</v>
+          <t>9174BASL175.CEL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.3981</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>212.6018</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>137.2053</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.0921</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2065CIS150.CEL</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4.147160417361476</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-2.592238633072681</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.25646546232833</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.06764374295377676</v>
+          <t>7363RRMS176.CEL</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2.1278</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>193.9777</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>127.4426</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.3668</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>5592CIS150.CEL</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>12.59001143456096</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-0.4688544875338955</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.951066323540652</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.06764374295377676</v>
+          <t>9753BASL178.CEL</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>159.6648</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>120.2449</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>78.8450</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2498CIS150.CEL</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5.828684072609462</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-3.420135323697432</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9670548067368205</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.03910935738444193</v>
+          <t>10818RRMS198.CEL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>184.7561</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>131.2809</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.8581</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>8639BASL171.CEL</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>6.27566820715613</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.05640681357449551</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2.146635411623818</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.06764374295377676</v>
+          <t>12950NMS198.CEL</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.6266</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>255.6389</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>147.4114</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.1597</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>8640BASL171.CEL</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9326790223450374</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-3.988073611878984</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.04735062006764373</v>
+          <t>13053NMS198.CEL</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.9327</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>198.8735</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>124.9917</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.5864</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>8636BASL171.CEL</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>8.351076754490446</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3.853542945957652</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
+          <t>13503NMS208.CEL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>4.9700</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>202.6262</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>151.4016</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.8454</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>8660BASL172.CEL</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>5.498951831911953</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-1.246978911618349</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.6585089306189016</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.06764374295377676</v>
+          <t>13505NMS208.CEL</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4.5800</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>157.7686</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>120.6773</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.9956</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>8669BASL172.CEL</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>6.542117299537853</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-2.357265092278116</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.483782199913368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.05186020293122887</v>
+          <t>13512NMS208.CEL</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12.8800</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>220.0505</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>158.5697</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>101.2436</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>9150BASL175.CEL</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5060290129794927</v>
-      </c>
-      <c r="D26" t="n">
-        <v>2.515402451142761</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.06764374295377676</v>
+          <t>7351NMS208.CEL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>24.1300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>196.1052</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>141.5003</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.1645</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>9183BASL175.CEL</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2.28549478298156</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-3.12843903851722</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1.152559431294112</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.05524239007891769</v>
+          <t>606REL45.CEL</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>8.8200</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>204.8632</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>133.0659</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.6424</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>9603PROBMS176.CEL</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4.693791986278528</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-1.633112181765519</v>
-      </c>
-      <c r="D28" t="n">
-        <v>1.403317451015365</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.06764374295377676</v>
+          <t>4193GA108.CEL</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4.3800</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>149.9382</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>154.8172</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.7400</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>7021RRMS176.CEL</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1.507611129639334</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-4.170642129373652</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-0.2169847376869563</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.3945885005636978</v>
+          <t>1794CIS150.CEL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.4200</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>169.1263</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>127.2076</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.0425</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>9411BASL178.CEL</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-3.321477917004143</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-2.205539320222195</v>
-      </c>
-      <c r="D30" t="n">
-        <v>1.34408999413968</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.06764374295377676</v>
+          <t>12907NMS200.CEL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2.5900</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>189.3454</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>138.5670</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.0108</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>9228BASL178.CEL</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>6.027478679308207</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1101150514703944</v>
-      </c>
-      <c r="D31" t="n">
-        <v>4.201442148444467</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.05749718151071025</v>
+          <t>10954RRMS208.CEL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>9.4700</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>162.5955</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>119.2904</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.2924</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>11135RRMS198.CEL</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>10.51883129258183</v>
-      </c>
-      <c r="C32" t="n">
-        <v>-0.2686201721822891</v>
-      </c>
-      <c r="D32" t="n">
-        <v>1.670471628404718</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.06764374295377676</v>
+          <t>2032PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>6.4800</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>122.0524</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>134.2185</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.5459</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>13163NMS198.CEL</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>9.781611796655389</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-1.232130163494189</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.978813667286671</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.06764374295377676</v>
+          <t>3118PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.2300</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>200.5425</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>151.8096</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>103.9744</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>12871NMS198.CEL</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>7.288853685263708</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-0.4890345680962488</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2.087892068183555</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.06313416009019164</v>
+          <t>9150BASL175.CEL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.3400</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>238.2501</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>148.9325</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.1078</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>13160NMS198.CEL</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-2.172483205488587</v>
-      </c>
-      <c r="C35" t="n">
-        <v>-4.453676644814771</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5041914031645728</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-0.05636978579481397</v>
+          <t>9603PROBMS176.CEL</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>232.0607</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>141.6131</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.5281</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>12859NMS200.CEL</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>8.049907094192195</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.305259000687951</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-0.06764374295377676</v>
+          <t>9411BASL178.CEL</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>211.1325</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>147.2581</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.3843</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>13059NMS200.CEL</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>10.21007432464624</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4.84512808361634</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2.177070858919153</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-0.06764374295377676</v>
+          <t>11135RRMS198.CEL</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>131.6989</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>117.1403</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>74.9532</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>13159NMS200.CEL</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>3.651984372766689</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-2.949372087512823</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9915662343618628</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-0.02818489289740699</v>
+          <t>1343AV55.CEL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>217.5220</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>150.9731</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.2411</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>8661RRMS208.CEL</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>7.222187812663775</v>
-      </c>
-      <c r="C39" t="n">
-        <v>-1.046705104915351</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2.249420337860217</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.06764374295377676</v>
+          <t>1823PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>235.6579</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>187.7796</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.0843</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>13429NMS208.CEL</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>3.692088713135451</v>
-      </c>
-      <c r="C40" t="n">
-        <v>-2.178566727220066</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1.016574515249573</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-0.03382187147688838</v>
+          <t>2614PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.3000</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>180.5988</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>128.5679</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.7788</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>8636BASL171.CEL</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1.8400</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>210.5728</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>143.0217</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.6522</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>8669BASL172.CEL</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>180.9355</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>134.4234</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.9751</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1162,22 +1500,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>T2V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>1053_at</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>121_at</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>1320_at</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GDV</t>
         </is>
       </c>
     </row>
@@ -1188,16 +1526,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.1916572717023675</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.5902972985849746</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-5.42454519126976</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.6949320967207672</v>
       </c>
     </row>
     <row r="3">
@@ -1207,16 +1545,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.004047350620067648</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-4.248124160808767</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.05055163451983576</v>
       </c>
     </row>
     <row r="4">
@@ -1226,16 +1564,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-0.05783540022547914</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.7024751060079105</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>-2.967195850775335</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1.844841643947308</v>
       </c>
     </row>
     <row r="5">
@@ -1245,16 +1583,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.1482525366403608</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.174436609652677</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>-1.596569517942229</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.546525849109486</v>
       </c>
     </row>
     <row r="6">
@@ -1264,16 +1602,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.0366967305524239</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>4.260100528848443</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>-0.8100465997946402</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2.629016230539913</v>
       </c>
     </row>
     <row r="7">
@@ -1283,16 +1621,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.1103156708004509</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.312949640287769</v>
       </c>
       <c r="D7" t="n">
+        <v>-5.786220151120219</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.6339465436848677</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1302,16 +1640,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.1113077790304397</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>4.663240268712181</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>-4.220467051049138</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.548067368206488</v>
       </c>
     </row>
     <row r="9">
@@ -1321,16 +1659,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.2178128523111612</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.218459669350613</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>-3.915633309638509</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1.080872423369939</v>
       </c>
     </row>
     <row r="10">
@@ -1340,16 +1678,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.05393461104847801</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3.480394492353136</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>-4.109878103362017</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1.914133564348867</v>
       </c>
     </row>
     <row r="11">
@@ -1359,16 +1697,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>-0.03315670800450957</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.959347753585213</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>-5.038188136798023</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.063622697276224</v>
       </c>
     </row>
     <row r="12">
@@ -1378,16 +1716,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.4857948139797069</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.873362237362429</v>
       </c>
       <c r="D12" t="n">
+        <v>-4.772148066240144</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.8556832369353068</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1397,16 +1735,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.1978128523111612</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.840654628614991</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-2.821894005212847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.023288404209239</v>
       </c>
     </row>
     <row r="14">
@@ -1416,16 +1754,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.3473393461104847</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>11.46560102911049</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>4.701537529947593</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.521339210640303</v>
       </c>
     </row>
     <row r="15">
@@ -1435,16 +1773,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>-0.02276211950394588</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.463862022964409</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>-1.812363425743089</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.432861110403343</v>
       </c>
     </row>
     <row r="16">
@@ -1454,16 +1792,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.1722435174746336</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.245545285625804</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>-3.097504146591886</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.448671236018039</v>
       </c>
     </row>
     <row r="17">
@@ -1473,16 +1811,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>-0.01559188275084554</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.158535423316978</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>-4.044993813021601</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1492,16 +1830,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>-0.0209695603156708</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4.147160417361476</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>-2.592238633072681</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.25646546232833</v>
       </c>
     </row>
     <row r="19">
@@ -1511,16 +1849,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.002998872604284111</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>12.59001143456096</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>-0.4688544875338955</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.951066323540652</v>
       </c>
     </row>
     <row r="20">
@@ -1530,16 +1868,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.1502480270574972</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5.828684072609462</v>
       </c>
       <c r="D20" t="n">
+        <v>-3.420135323697432</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.9670548067368205</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1549,16 +1887,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.4926719278466741</v>
       </c>
       <c r="C21" t="n">
+        <v>6.27566820715613</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.05640681357449551</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.146635411623818</v>
       </c>
     </row>
     <row r="22">
@@ -1568,13 +1906,13 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0.4487034949267192</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.9326790223450374</v>
       </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-3.988073611878984</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1587,16 +1925,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>1.384441939120631</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>8.351076754490446</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.853542945957652</v>
       </c>
     </row>
     <row r="24">
@@ -1606,16 +1944,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>2.652762119503945</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>5.498951831911953</v>
       </c>
       <c r="D24" t="n">
+        <v>-1.246978911618349</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.6585089306189016</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1625,16 +1963,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.9267192784667418</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>6.542117299537853</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>-2.357265092278116</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05186020293122887</v>
+        <v>1.483782199913368</v>
       </c>
     </row>
     <row r="26">
@@ -1644,16 +1982,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.4261555806087936</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.5060290129794927</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.515402451142761</v>
       </c>
     </row>
     <row r="27">
@@ -1663,16 +2001,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.09244644870349492</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>2.28549478298156</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>-3.12843903851722</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.152559431294112</v>
       </c>
     </row>
     <row r="28">
@@ -1682,16 +2020,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.2243517474633596</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4.693791986278528</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>-1.633112181765519</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.403317451015365</v>
       </c>
     </row>
     <row r="29">
@@ -1704,13 +2042,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.507611129639334</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-4.170642129373652</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3945885005636978</v>
+        <v>-0.2169847376869563</v>
       </c>
     </row>
     <row r="30">
@@ -1720,16 +2058,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.6629086809470124</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>-3.321477917004143</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>-2.205539320222195</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.34408999413968</v>
       </c>
     </row>
     <row r="31">
@@ -1739,16 +2077,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>-0.04171364148816234</v>
       </c>
       <c r="C31" t="n">
+        <v>6.027478679308207</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.1101150514703944</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.201442148444467</v>
       </c>
     </row>
     <row r="32">
@@ -1758,16 +2096,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>-0.02931228861330326</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>10.51883129258183</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>-0.2686201721822891</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.670471628404718</v>
       </c>
     </row>
     <row r="33">
@@ -1777,16 +2115,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>-0.06764374295377676</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>9.781611796655389</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>-1.232130163494189</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.978813667286671</v>
       </c>
     </row>
     <row r="34">
@@ -1796,16 +2134,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>-0.05749718151071025</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>7.288853685263708</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>-0.4890345680962488</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.087892068183555</v>
       </c>
     </row>
     <row r="35">
@@ -1815,16 +2153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0.03382187147688838</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-2.172483205488587</v>
       </c>
       <c r="D35" t="n">
+        <v>-4.453676644814771</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.5041914031645728</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1834,16 +2172,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>-0.06764374295377676</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>8.049907094192195</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.305259000687951</v>
       </c>
     </row>
     <row r="37">
@@ -1853,16 +2191,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>-0.02254791431792558</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>10.21007432464624</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>4.84512808361634</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.177070858919153</v>
       </c>
     </row>
     <row r="38">
@@ -1872,16 +2210,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.07891770011273957</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>3.651984372766689</v>
       </c>
       <c r="D38" t="n">
+        <v>-2.949372087512823</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.9915662343618628</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1891,16 +2229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.1397970687711387</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>7.222187812663775</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>-1.046705104915351</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.249420337860217</v>
       </c>
     </row>
     <row r="40">
@@ -1910,16 +2248,803 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>3.692088713135451</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>-2.178566727220066</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.016574515249573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>person_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>T2V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1053_at</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>121_at</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1320_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>581REL45.CEL</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1916572717023675</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5902972985849746</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>495REL45.CEL</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.004047350620067648</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1727AV55.CEL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7024751060079105</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1343AV55.CEL</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1482525366403608</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>2032PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0366967305524239</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>3118PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1103156708004509</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6339465436848677</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>1823PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1113077790304397</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2614PR58.CEL</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.2178128523111612</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Set982111OUT98.CEL</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.05393461104847801</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Set983049OUT98new.CEL</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Set984830OUT98.CEL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4857948139797069</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.8556832369353068</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>4738GA104NEW.CEL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.1978128523111612</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>5129GA104NEW.CEL</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3473393461104847</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>4447GA108.CEL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>5016GA108.CEL</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1722435174746336</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>1021CIS150.CEL</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>2065CIS150.CEL</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>5592CIS150.CEL</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.002998872604284111</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>2498CIS150.CEL</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1502480270574972</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9670548067368205</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8639BASL171.CEL</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4926719278466741</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.05640681357449551</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>8640BASL171.CEL</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4487034949267192</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9326790223450374</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>8636BASL171.CEL</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>8660BASL172.CEL</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6585089306189016</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>8669BASL172.CEL</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9267192784667418</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>9150BASL175.CEL</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4261555806087936</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5060290129794927</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>9183BASL175.CEL</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.09244644870349492</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>9603PROBMS176.CEL</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2243517474633596</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>7021RRMS176.CEL</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>9411BASL178.CEL</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.6629086809470124</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>9228BASL178.CEL</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1101150514703944</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>11135RRMS198.CEL</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>13163NMS198.CEL</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>12871NMS198.CEL</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>13160NMS198.CEL</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5041914031645728</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>12859NMS200.CEL</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>13059NMS200.CEL</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>13159NMS200.CEL</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.07891770011273957</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9915662343618628</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>8661RRMS208.CEL</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1397970687711387</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>13429NMS208.CEL</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/academycity/academycity/media/ms/normalization_75_40_95_35.xlsx
+++ b/academycity/academycity/media/ms/normalization_75_40_95_35.xlsx
@@ -369,17 +369,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>9</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1053_at</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>121_at</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1320_at</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GDV</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -389,16 +397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>149.9382</v>
+      </c>
+      <c r="C2" t="n">
+        <v>150.9731</v>
+      </c>
+      <c r="D2" t="n">
+        <v>70.9956</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>149.9382</v>
-      </c>
-      <c r="D2" t="n">
-        <v>150.9731</v>
-      </c>
-      <c r="E2" t="n">
-        <v>70.9956</v>
       </c>
     </row>
     <row r="3">
@@ -408,16 +416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>158.3338</v>
+      </c>
+      <c r="C3" t="n">
+        <v>158.5697</v>
+      </c>
+      <c r="D3" t="n">
+        <v>78.845</v>
+      </c>
+      <c r="E3" t="n">
         <v>9.470000000000001</v>
-      </c>
-      <c r="C3" t="n">
-        <v>158.3338</v>
-      </c>
-      <c r="D3" t="n">
-        <v>158.5697</v>
-      </c>
-      <c r="E3" t="n">
-        <v>78.845</v>
       </c>
     </row>
     <row r="4">
@@ -428,22 +436,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.3000</t>
+          <t>154.8941</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>154.8941</t>
+          <t>109.7650</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>109.7650</t>
+          <t>65.5408</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.5408</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -455,22 +463,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.6359</t>
+          <t>158.3338</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>158.3338</t>
+          <t>118.7018</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>118.7018</t>
+          <t>70.5988</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.5988</t>
+          <t>0.0798</t>
         </is>
       </c>
     </row>
@@ -482,22 +490,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0870</t>
+          <t>155.8359</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>155.8359</t>
+          <t>128.4325</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>128.4325</t>
+          <t>85.4765</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.4765</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -509,22 +517,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.9150</t>
+          <t>168.1939</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>168.1939</t>
+          <t>138.8446</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>138.8446</t>
+          <t>90.9843</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.9843</t>
+          <t>0.1550</t>
         </is>
       </c>
     </row>
@@ -536,22 +544,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9255</t>
+          <t>185.7043</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>185.7043</t>
+          <t>144.8195</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>144.8195</t>
+          <t>91.6318</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.6318</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -563,22 +571,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.5785</t>
+          <t>160.9612</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>160.9612</t>
+          <t>107.0175</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>107.0175</t>
+          <t>75.9717</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>75.9717</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -590,22 +598,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.5873</t>
+          <t>189.0889</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>189.0889</t>
+          <t>118.9119</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>118.9119</t>
+          <t>83.1470</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>83.1470</t>
+          <t>0.0475</t>
         </is>
       </c>
     </row>
@@ -617,22 +625,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.5320</t>
+          <t>160.1679</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>160.1679</t>
+          <t>121.2276</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>121.2276</t>
+          <t>79.4798</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>79.4798</t>
+          <t>0.3720</t>
         </is>
       </c>
     </row>
@@ -644,22 +652,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.0784</t>
+          <t>179.1582</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>179.1582</t>
+          <t>119.7520</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>119.7520</t>
+          <t>86.0204</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.0204</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -671,22 +679,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.3059</t>
+          <t>166.3881</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>166.3881</t>
+          <t>112.7000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>112.7000</t>
+          <t>79.3444</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.3444</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -698,22 +706,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4.9090</t>
+          <t>165.6662</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>165.6662</t>
+          <t>114.7210</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>114.7210</t>
+          <t>77.7122</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>77.7122</t>
+          <t>0.3910</t>
         </is>
       </c>
     </row>
@@ -725,22 +733,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.3546</t>
+          <t>173.7872</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>173.7872</t>
+          <t>129.5363</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>129.5363</t>
+          <t>79.0278</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>79.0278</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -752,22 +760,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.6809</t>
+          <t>246.1988</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>246.1988</t>
+          <t>186.6888</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>186.6888</t>
+          <t>130.0336</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>130.0336</t>
+          <t>0.0817</t>
         </is>
       </c>
     </row>
@@ -779,22 +787,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.3981</t>
+          <t>212.6018</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>212.6018</t>
+          <t>137.2053</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>137.2053</t>
+          <t>90.0921</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.0921</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -806,22 +814,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.1278</t>
+          <t>193.9777</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>193.9777</t>
+          <t>127.4426</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>127.4426</t>
+          <t>82.3668</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>82.3668</t>
+          <t>0.0817</t>
         </is>
       </c>
     </row>
@@ -833,22 +841,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.4617</t>
+          <t>159.6648</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>159.6648</t>
+          <t>120.2449</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>120.2449</t>
+          <t>78.8450</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>78.8450</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -860,22 +868,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.4140</t>
+          <t>184.7561</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>184.7561</t>
+          <t>131.2809</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>131.2809</t>
+          <t>80.8581</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>80.8581</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -887,22 +895,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.6266</t>
+          <t>255.6389</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>255.6389</t>
+          <t>147.4114</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>147.4114</t>
+          <t>94.1597</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.1597</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -914,22 +922,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1.9327</t>
+          <t>198.8735</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>198.8735</t>
+          <t>124.9917</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>124.9917</t>
+          <t>78.5864</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>78.5864</t>
+          <t>0.2531</t>
         </is>
       </c>
     </row>
@@ -941,22 +949,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.9700</t>
+          <t>202.6262</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>202.6262</t>
+          <t>151.4016</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>151.4016</t>
+          <t>87.8454</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>87.8454</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -968,22 +976,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.5800</t>
+          <t>157.7686</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>157.7686</t>
+          <t>120.6773</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>120.6773</t>
+          <t>70.9956</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>70.9956</t>
+          <t>0.1800</t>
         </is>
       </c>
     </row>
@@ -995,22 +1003,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12.8800</t>
+          <t>220.0505</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>220.0505</t>
+          <t>158.5697</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>158.5697</t>
+          <t>101.2436</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>101.2436</t>
+          <t>0.6000</t>
         </is>
       </c>
     </row>
@@ -1022,22 +1030,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24.1300</t>
+          <t>196.1052</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>196.1052</t>
+          <t>141.5003</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>141.5003</t>
+          <t>76.1645</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>76.1645</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1049,22 +1057,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8.8200</t>
+          <t>204.8632</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>204.8632</t>
+          <t>133.0659</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>133.0659</t>
+          <t>82.6424</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>82.6424</t>
+          <t>1.0600</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1084,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.3800</t>
+          <t>149.9382</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>149.9382</t>
+          <t>154.8172</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>154.8172</t>
+          <t>90.7400</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>90.7400</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1103,22 +1111,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.4200</t>
+          <t>169.1263</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>169.1263</t>
+          <t>127.2076</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>127.2076</t>
+          <t>80.0425</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>80.0425</t>
+          <t>0.1100</t>
         </is>
       </c>
     </row>
@@ -1130,22 +1138,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2.5900</t>
+          <t>189.3454</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>189.3454</t>
+          <t>138.5670</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>138.5670</t>
+          <t>82.0108</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>82.0108</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1157,22 +1165,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9.4700</t>
+          <t>162.5955</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>162.5955</t>
+          <t>119.2904</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>119.2904</t>
+          <t>69.2924</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>69.2924</t>
+          <t>4.1000</t>
         </is>
       </c>
     </row>
@@ -1184,22 +1192,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6.4800</t>
+          <t>122.0524</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>122.0524</t>
+          <t>134.2185</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>134.2185</t>
+          <t>81.5459</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>81.5459</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1211,22 +1219,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.2300</t>
+          <t>200.5425</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>200.5425</t>
+          <t>151.8096</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>151.8096</t>
+          <t>103.9744</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>103.9744</t>
+          <t>0.0900</t>
         </is>
       </c>
     </row>
@@ -1238,22 +1246,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.3400</t>
+          <t>238.2501</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>238.2501</t>
+          <t>148.9325</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>148.9325</t>
+          <t>84.1078</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>84.1078</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1265,22 +1273,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>232.0607</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>141.6131</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>86.5281</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>0.0000</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>232.0607</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>141.6131</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>86.5281</t>
         </is>
       </c>
     </row>
@@ -1292,22 +1300,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.0900</t>
+          <t>211.1325</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>211.1325</t>
+          <t>147.2581</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>147.2581</t>
+          <t>87.3843</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>87.3843</t>
+          <t>0.0400</t>
         </is>
       </c>
     </row>
@@ -1319,22 +1327,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.3000</t>
+          <t>131.6989</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>131.6989</t>
+          <t>117.1403</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>117.1403</t>
+          <t>74.9532</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>74.9532</t>
+          <t>0.1000</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1354,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>217.5220</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>150.9731</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>81.2411</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>0.0000</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>217.5220</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>150.9731</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>81.2411</t>
         </is>
       </c>
     </row>
@@ -1373,22 +1381,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.4000</t>
+          <t>235.6579</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>235.6579</t>
+          <t>187.7796</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>187.7796</t>
+          <t>88.0843</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>88.0843</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1400,22 +1408,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1.3000</t>
+          <t>180.5988</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>180.5988</t>
+          <t>128.5679</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>128.5679</t>
+          <t>78.7788</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>78.7788</t>
+          <t>0.3500</t>
         </is>
       </c>
     </row>
@@ -1427,22 +1435,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1.8400</t>
+          <t>210.5728</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>210.5728</t>
+          <t>143.0217</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>143.0217</t>
+          <t>88.6522</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>88.6522</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1454,22 +1462,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.6000</t>
+          <t>180.9355</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>180.9355</t>
+          <t>134.4234</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>134.4234</t>
+          <t>78.9751</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>78.9751</t>
+          <t>0.3000</t>
         </is>
       </c>
     </row>
@@ -1500,22 +1508,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>T2V</t>
+          <t>1053_at</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1053_at</t>
+          <t>121_at</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>121_at</t>
+          <t>1320_at</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1320_at</t>
+          <t>GDV</t>
         </is>
       </c>
     </row>
@@ -1526,16 +1534,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1916572717023675</v>
+        <v>0.5902972985849746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5902972985849746</v>
+        <v>-5.42454519126976</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.42454519126976</v>
+        <v>-0.6949320967207672</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6949320967207672</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="3">
@@ -1545,16 +1553,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004047350620067648</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>-4.248124160808767</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.248124160808767</v>
+        <v>-0.05055163451983576</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05055163451983576</v>
+        <v>-0.05864712514092445</v>
       </c>
     </row>
     <row r="4">
@@ -1564,16 +1572,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.05783540022547914</v>
+        <v>0.7024751060079105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7024751060079105</v>
+        <v>-2.967195850775335</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.967195850775335</v>
+        <v>1.844841643947308</v>
       </c>
       <c r="E4" t="n">
-        <v>1.844841643947308</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="5">
@@ -1583,16 +1591,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1482525366403608</v>
+        <v>2.174436609652677</v>
       </c>
       <c r="C5" t="n">
-        <v>2.174436609652677</v>
+        <v>-1.596569517942229</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.596569517942229</v>
+        <v>2.546525849109486</v>
       </c>
       <c r="E5" t="n">
-        <v>2.546525849109486</v>
+        <v>-0.05016910935738443</v>
       </c>
     </row>
     <row r="6">
@@ -1602,16 +1610,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0366967305524239</v>
+        <v>4.260100528848443</v>
       </c>
       <c r="C6" t="n">
-        <v>4.260100528848443</v>
+        <v>-0.8100465997946402</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8100465997946402</v>
+        <v>2.629016230539913</v>
       </c>
       <c r="E6" t="n">
-        <v>2.629016230539913</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="7">
@@ -1621,16 +1629,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1103156708004509</v>
+        <v>1.312949640287769</v>
       </c>
       <c r="C7" t="n">
-        <v>1.312949640287769</v>
+        <v>-5.786220151120219</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.786220151120219</v>
+        <v>0.6339465436848677</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6339465436848677</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="8">
@@ -1640,16 +1648,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1113077790304397</v>
+        <v>4.663240268712181</v>
       </c>
       <c r="C8" t="n">
-        <v>4.663240268712181</v>
+        <v>-4.220467051049138</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.220467051049138</v>
+        <v>1.548067368206488</v>
       </c>
       <c r="E8" t="n">
-        <v>1.548067368206488</v>
+        <v>-0.06228861330326944</v>
       </c>
     </row>
     <row r="9">
@@ -1659,16 +1667,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2178128523111612</v>
+        <v>1.218459669350613</v>
       </c>
       <c r="C9" t="n">
-        <v>1.218459669350613</v>
+        <v>-3.915633309638509</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.915633309638509</v>
+        <v>1.080872423369939</v>
       </c>
       <c r="E9" t="n">
-        <v>1.080872423369939</v>
+        <v>-0.02570462232243517</v>
       </c>
     </row>
     <row r="10">
@@ -1678,16 +1686,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05393461104847801</v>
+        <v>3.480394492353136</v>
       </c>
       <c r="C10" t="n">
-        <v>3.480394492353136</v>
+        <v>-4.109878103362017</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.109878103362017</v>
+        <v>1.914133564348867</v>
       </c>
       <c r="E10" t="n">
-        <v>1.914133564348867</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="11">
@@ -1697,16 +1705,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03315670800450957</v>
+        <v>1.959347753585213</v>
       </c>
       <c r="C11" t="n">
-        <v>1.959347753585213</v>
+        <v>-5.038188136798023</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.038188136798023</v>
+        <v>1.063622697276224</v>
       </c>
       <c r="E11" t="n">
-        <v>1.063622697276224</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="12">
@@ -1716,16 +1724,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4857948139797069</v>
+        <v>1.873362237362429</v>
       </c>
       <c r="C12" t="n">
-        <v>1.873362237362429</v>
+        <v>-4.772148066240144</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.772148066240144</v>
+        <v>0.8556832369353068</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8556832369353068</v>
+        <v>-0.02356257046223224</v>
       </c>
     </row>
     <row r="13">
@@ -1735,16 +1743,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1978128523111612</v>
+        <v>2.840654628614991</v>
       </c>
       <c r="C13" t="n">
-        <v>2.840654628614991</v>
+        <v>-2.821894005212847</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.821894005212847</v>
+        <v>1.023288404209239</v>
       </c>
       <c r="E13" t="n">
-        <v>1.023288404209239</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="14">
@@ -1754,16 +1762,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3473393461104847</v>
+        <v>11.46560102911049</v>
       </c>
       <c r="C14" t="n">
-        <v>11.46560102911049</v>
+        <v>4.701537529947593</v>
       </c>
       <c r="D14" t="n">
-        <v>4.701537529947593</v>
+        <v>7.521339210640303</v>
       </c>
       <c r="E14" t="n">
-        <v>7.521339210640303</v>
+        <v>-0.05843291995490416</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1781,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02276211950394588</v>
+        <v>7.463862022964409</v>
       </c>
       <c r="C15" t="n">
-        <v>7.463862022964409</v>
+        <v>-1.812363425743089</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.812363425743089</v>
+        <v>2.432861110403343</v>
       </c>
       <c r="E15" t="n">
-        <v>2.432861110403343</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="16">
@@ -1792,16 +1800,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1722435174746336</v>
+        <v>5.245545285625804</v>
       </c>
       <c r="C16" t="n">
-        <v>5.245545285625804</v>
+        <v>-3.097504146591886</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.097504146591886</v>
+        <v>1.448671236018039</v>
       </c>
       <c r="E16" t="n">
-        <v>1.448671236018039</v>
+        <v>-0.05843291995490416</v>
       </c>
     </row>
     <row r="17">
@@ -1811,16 +1819,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01559188275084554</v>
+        <v>1.158535423316978</v>
       </c>
       <c r="C17" t="n">
-        <v>1.158535423316978</v>
+        <v>-4.044993813021601</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.044993813021601</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="18">
@@ -1830,16 +1838,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0209695603156708</v>
+        <v>4.147160417361476</v>
       </c>
       <c r="C18" t="n">
-        <v>4.147160417361476</v>
+        <v>-2.592238633072681</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.592238633072681</v>
+        <v>1.25646546232833</v>
       </c>
       <c r="E18" t="n">
-        <v>1.25646546232833</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="19">
@@ -1849,16 +1857,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002998872604284111</v>
+        <v>12.59001143456096</v>
       </c>
       <c r="C19" t="n">
-        <v>12.59001143456096</v>
+        <v>-0.4688544875338955</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4688544875338955</v>
+        <v>2.951066323540652</v>
       </c>
       <c r="E19" t="n">
-        <v>2.951066323540652</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="20">
@@ -1868,16 +1876,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1502480270574972</v>
+        <v>5.828684072609462</v>
       </c>
       <c r="C20" t="n">
-        <v>5.828684072609462</v>
+        <v>-3.420135323697432</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.420135323697432</v>
+        <v>0.9670548067368205</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9670548067368205</v>
+        <v>-0.03910935738444193</v>
       </c>
     </row>
     <row r="21">
@@ -1887,16 +1895,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4926719278466741</v>
+        <v>6.27566820715613</v>
       </c>
       <c r="C21" t="n">
-        <v>6.27566820715613</v>
+        <v>0.05640681357449551</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05640681357449551</v>
+        <v>2.146635411623818</v>
       </c>
       <c r="E21" t="n">
-        <v>2.146635411623818</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="22">
@@ -1906,16 +1914,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4487034949267192</v>
+        <v>0.9326790223450374</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9326790223450374</v>
+        <v>-3.988073611878984</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.988073611878984</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.04735062006764373</v>
       </c>
     </row>
     <row r="23">
@@ -1925,16 +1933,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.384441939120631</v>
+        <v>8.351076754490446</v>
       </c>
       <c r="C23" t="n">
-        <v>8.351076754490446</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3.853542945957652</v>
       </c>
       <c r="E23" t="n">
-        <v>3.853542945957652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1944,16 +1952,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.652762119503945</v>
+        <v>5.498951831911953</v>
       </c>
       <c r="C24" t="n">
-        <v>5.498951831911953</v>
+        <v>-1.246978911618349</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.246978911618349</v>
+        <v>0.6585089306189016</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6585089306189016</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="25">
@@ -1963,16 +1971,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9267192784667418</v>
+        <v>6.542117299537853</v>
       </c>
       <c r="C25" t="n">
-        <v>6.542117299537853</v>
+        <v>-2.357265092278116</v>
       </c>
       <c r="D25" t="n">
-        <v>-2.357265092278116</v>
+        <v>1.483782199913368</v>
       </c>
       <c r="E25" t="n">
-        <v>1.483782199913368</v>
+        <v>0.05186020293122887</v>
       </c>
     </row>
     <row r="26">
@@ -1982,16 +1990,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4261555806087936</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.5060290129794927</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5060290129794927</v>
+        <v>2.515402451142761</v>
       </c>
       <c r="E26" t="n">
-        <v>2.515402451142761</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="27">
@@ -2001,16 +2009,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.09244644870349492</v>
+        <v>2.28549478298156</v>
       </c>
       <c r="C27" t="n">
-        <v>2.28549478298156</v>
+        <v>-3.12843903851722</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.12843903851722</v>
+        <v>1.152559431294112</v>
       </c>
       <c r="E27" t="n">
-        <v>1.152559431294112</v>
+        <v>-0.05524239007891769</v>
       </c>
     </row>
     <row r="28">
@@ -2020,16 +2028,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2243517474633596</v>
+        <v>4.693791986278528</v>
       </c>
       <c r="C28" t="n">
-        <v>4.693791986278528</v>
+        <v>-1.633112181765519</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.633112181765519</v>
+        <v>1.403317451015365</v>
       </c>
       <c r="E28" t="n">
-        <v>1.403317451015365</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="29">
@@ -2039,16 +2047,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>1.507611129639334</v>
       </c>
       <c r="C29" t="n">
-        <v>1.507611129639334</v>
+        <v>-4.170642129373652</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.170642129373652</v>
+        <v>-0.2169847376869563</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.2169847376869563</v>
+        <v>0.3945885005636978</v>
       </c>
     </row>
     <row r="30">
@@ -2058,16 +2066,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6629086809470124</v>
+        <v>-3.321477917004143</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.321477917004143</v>
+        <v>-2.205539320222195</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.205539320222195</v>
+        <v>1.34408999413968</v>
       </c>
       <c r="E30" t="n">
-        <v>1.34408999413968</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="31">
@@ -2077,16 +2085,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.04171364148816234</v>
+        <v>6.027478679308207</v>
       </c>
       <c r="C31" t="n">
-        <v>6.027478679308207</v>
+        <v>0.1101150514703944</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1101150514703944</v>
+        <v>4.201442148444467</v>
       </c>
       <c r="E31" t="n">
-        <v>4.201442148444467</v>
+        <v>-0.05749718151071025</v>
       </c>
     </row>
     <row r="32">
@@ -2096,16 +2104,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.02931228861330326</v>
+        <v>10.51883129258183</v>
       </c>
       <c r="C32" t="n">
-        <v>10.51883129258183</v>
+        <v>-0.2686201721822891</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2686201721822891</v>
+        <v>1.670471628404718</v>
       </c>
       <c r="E32" t="n">
-        <v>1.670471628404718</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="33">
@@ -2115,16 +2123,16 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>9.781611796655389</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.232130163494189</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.978813667286671</v>
+      </c>
+      <c r="E33" t="n">
         <v>-0.06764374295377676</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9.781611796655389</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-1.232130163494189</v>
-      </c>
-      <c r="E33" t="n">
-        <v>1.978813667286671</v>
       </c>
     </row>
     <row r="34">
@@ -2134,16 +2142,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.05749718151071025</v>
+        <v>7.288853685263708</v>
       </c>
       <c r="C34" t="n">
-        <v>7.288853685263708</v>
+        <v>-0.4890345680962488</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.4890345680962488</v>
+        <v>2.087892068183555</v>
       </c>
       <c r="E34" t="n">
-        <v>2.087892068183555</v>
+        <v>-0.06313416009019164</v>
       </c>
     </row>
     <row r="35">
@@ -2153,16 +2161,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.03382187147688838</v>
+        <v>-2.172483205488587</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.172483205488587</v>
+        <v>-4.453676644814771</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.453676644814771</v>
+        <v>0.5041914031645728</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5041914031645728</v>
+        <v>-0.05636978579481397</v>
       </c>
     </row>
     <row r="36">
@@ -2172,16 +2180,16 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>8.049907094192195</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.305259000687951</v>
+      </c>
+      <c r="E36" t="n">
         <v>-0.06764374295377676</v>
-      </c>
-      <c r="C36" t="n">
-        <v>8.049907094192195</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>1.305259000687951</v>
       </c>
     </row>
     <row r="37">
@@ -2191,16 +2199,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.02254791431792558</v>
+        <v>10.21007432464624</v>
       </c>
       <c r="C37" t="n">
-        <v>10.21007432464624</v>
+        <v>4.84512808361634</v>
       </c>
       <c r="D37" t="n">
-        <v>4.84512808361634</v>
+        <v>2.177070858919153</v>
       </c>
       <c r="E37" t="n">
-        <v>2.177070858919153</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="38">
@@ -2210,16 +2218,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.07891770011273957</v>
+        <v>3.651984372766689</v>
       </c>
       <c r="C38" t="n">
-        <v>3.651984372766689</v>
+        <v>-2.949372087512823</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.949372087512823</v>
+        <v>0.9915662343618628</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9915662343618628</v>
+        <v>-0.02818489289740699</v>
       </c>
     </row>
     <row r="39">
@@ -2229,16 +2237,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1397970687711387</v>
+        <v>7.222187812663775</v>
       </c>
       <c r="C39" t="n">
-        <v>7.222187812663775</v>
+        <v>-1.046705104915351</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.046705104915351</v>
+        <v>2.249420337860217</v>
       </c>
       <c r="E39" t="n">
-        <v>2.249420337860217</v>
+        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="40">
@@ -2248,16 +2256,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.692088713135451</v>
       </c>
       <c r="C40" t="n">
-        <v>3.692088713135451</v>
+        <v>-2.178566727220066</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.178566727220066</v>
+        <v>1.016574515249573</v>
       </c>
       <c r="E40" t="n">
-        <v>1.016574515249573</v>
+        <v>-0.03382187147688838</v>
       </c>
     </row>
   </sheetData>
@@ -2287,22 +2295,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>T2V</t>
+          <t>1053_at</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>1053_at</t>
+          <t>121_at</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>121_at</t>
+          <t>1320_at</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>1320_at</t>
+          <t>GDV</t>
         </is>
       </c>
     </row>
@@ -2313,10 +2321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1916572717023675</v>
+        <v>0.5902972985849746</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5902972985849746</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2332,10 +2340,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.004047350620067648</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2351,16 +2359,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.7024751060079105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7024751060079105</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2370,16 +2378,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1482525366403608</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2389,16 +2397,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0366967305524239</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2408,16 +2416,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1103156708004509</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.6339465436848677</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6339465436848677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2427,16 +2435,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1113077790304397</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2446,16 +2454,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2178128523111612</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2465,16 +2473,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05393461104847801</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2484,16 +2492,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2503,16 +2511,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4857948139797069</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.8556832369353068</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8556832369353068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2522,16 +2530,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1978128523111612</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2541,7 +2549,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3473393461104847</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2550,7 +2558,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2560,16 +2568,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2579,16 +2587,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1722435174746336</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2598,16 +2606,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2617,16 +2625,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2636,16 +2644,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002998872604284111</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2655,16 +2663,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1502480270574972</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.9670548067368205</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9670548067368205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2674,16 +2682,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4926719278466741</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.05640681357449551</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05640681357449551</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2693,10 +2701,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4487034949267192</v>
+        <v>0.9326790223450374</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9326790223450374</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2721,7 +2729,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2734,13 +2742,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.6585089306189016</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6585089306189016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2750,16 +2758,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9267192784667418</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0.05186020293122887</v>
       </c>
     </row>
     <row r="26">
@@ -2769,16 +2777,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4261555806087936</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.5060290129794927</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5060290129794927</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2788,16 +2796,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.09244644870349492</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2807,16 +2815,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2243517474633596</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2829,13 +2837,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.3945885005636978</v>
       </c>
     </row>
     <row r="30">
@@ -2845,16 +2853,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6629086809470124</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2864,16 +2872,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0.1101150514703944</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1101150514703944</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2883,16 +2891,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2902,16 +2910,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2921,16 +2929,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2946,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.5041914031645728</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5041914031645728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2959,16 +2967,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2978,7 +2986,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -2987,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2997,16 +3005,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.07891770011273957</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.9915662343618628</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9915662343618628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3016,16 +3024,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1397970687711387</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3035,16 +3043,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academycity/academycity/media/ms/normalization_75_40_95_35.xlsx
+++ b/academycity/academycity/media/ms/normalization_75_40_95_35.xlsx
@@ -371,22 +371,22 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>T2V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>1053_at</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>121_at</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>1320_at</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GDV</t>
         </is>
       </c>
     </row>
@@ -397,16 +397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C2" t="n">
         <v>149.9382</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>150.9731</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>70.9956</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.6</v>
       </c>
     </row>
     <row r="3">
@@ -416,16 +416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C3" t="n">
         <v>158.3338</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>158.5697</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>78.845</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.470000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -434,25 +434,17 @@
           <t>728REL45.CEL</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>154.8941</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>109.7650</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>65.5408</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>154.8941</v>
+      </c>
+      <c r="D4" t="n">
+        <v>109.765</v>
+      </c>
+      <c r="E4" t="n">
+        <v>65.5408</v>
       </c>
     </row>
     <row r="5">
@@ -461,25 +453,17 @@
           <t>2883AV55.CEL</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>158.3338</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>118.7018</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>70.5988</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.6359</v>
+      </c>
+      <c r="C5" t="n">
+        <v>158.3338</v>
+      </c>
+      <c r="D5" t="n">
+        <v>118.7018</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70.5988</v>
       </c>
     </row>
     <row r="6">
@@ -488,25 +472,17 @@
           <t>2013PR58.CEL</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>155.8359</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>128.4325</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>85.4765</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>155.8359</v>
+      </c>
+      <c r="D6" t="n">
+        <v>128.4325</v>
+      </c>
+      <c r="E6" t="n">
+        <v>85.4765</v>
       </c>
     </row>
     <row r="7">
@@ -515,25 +491,17 @@
           <t>2721PR58.CEL</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168.1939</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>138.8446</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.9843</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.1550</t>
-        </is>
+      <c r="B7" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="C7" t="n">
+        <v>168.1939</v>
+      </c>
+      <c r="D7" t="n">
+        <v>138.8446</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.9843</v>
       </c>
     </row>
     <row r="8">
@@ -542,25 +510,17 @@
           <t>Set983000OUT98.CEL</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>185.7043</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>144.8195</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>91.6318</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.9255</v>
+      </c>
+      <c r="C8" t="n">
+        <v>185.7043</v>
+      </c>
+      <c r="D8" t="n">
+        <v>144.8195</v>
+      </c>
+      <c r="E8" t="n">
+        <v>91.6318</v>
       </c>
     </row>
     <row r="9">
@@ -569,25 +529,17 @@
           <t>4471GA104NEW.CEL</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160.9612</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>107.0175</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>75.9717</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1.5785</v>
+      </c>
+      <c r="C9" t="n">
+        <v>160.9612</v>
+      </c>
+      <c r="D9" t="n">
+        <v>107.0175</v>
+      </c>
+      <c r="E9" t="n">
+        <v>75.9717</v>
       </c>
     </row>
     <row r="10">
@@ -596,25 +548,17 @@
           <t>4539GA104NEW.CEL</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>189.0889</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>118.9119</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>83.1470</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
+      <c r="B10" t="n">
+        <v>1.5873</v>
+      </c>
+      <c r="C10" t="n">
+        <v>189.0889</v>
+      </c>
+      <c r="D10" t="n">
+        <v>118.9119</v>
+      </c>
+      <c r="E10" t="n">
+        <v>83.14700000000001</v>
       </c>
     </row>
     <row r="11">
@@ -623,25 +567,17 @@
           <t>4560GA104NEW.CEL</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160.1679</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>121.2276</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>79.4798</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.3720</t>
-        </is>
+      <c r="B11" t="n">
+        <v>2.532</v>
+      </c>
+      <c r="C11" t="n">
+        <v>160.1679</v>
+      </c>
+      <c r="D11" t="n">
+        <v>121.2276</v>
+      </c>
+      <c r="E11" t="n">
+        <v>79.4798</v>
       </c>
     </row>
     <row r="12">
@@ -650,25 +586,17 @@
           <t>4339GA108.CEL</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>179.1582</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>119.7520</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>86.0204</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B12" t="n">
+        <v>1.0784</v>
+      </c>
+      <c r="C12" t="n">
+        <v>179.1582</v>
+      </c>
+      <c r="D12" t="n">
+        <v>119.752</v>
+      </c>
+      <c r="E12" t="n">
+        <v>86.0204</v>
       </c>
     </row>
     <row r="13">
@@ -677,25 +605,17 @@
           <t>4436GA108.CEL</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>166.3881</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>112.7000</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>79.3444</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0.3059</v>
+      </c>
+      <c r="C13" t="n">
+        <v>166.3881</v>
+      </c>
+      <c r="D13" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="E13" t="n">
+        <v>79.34439999999999</v>
       </c>
     </row>
     <row r="14">
@@ -704,25 +624,17 @@
           <t>4531GA108.CEL</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>165.6662</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>114.7210</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>77.7122</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.3910</t>
-        </is>
+      <c r="B14" t="n">
+        <v>4.909</v>
+      </c>
+      <c r="C14" t="n">
+        <v>165.6662</v>
+      </c>
+      <c r="D14" t="n">
+        <v>114.721</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77.7122</v>
       </c>
     </row>
     <row r="15">
@@ -731,25 +643,17 @@
           <t>8610BASL169.CEL</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>173.7872</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>129.5363</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>79.0278</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B15" t="n">
+        <v>2.3546</v>
+      </c>
+      <c r="C15" t="n">
+        <v>173.7872</v>
+      </c>
+      <c r="D15" t="n">
+        <v>129.5363</v>
+      </c>
+      <c r="E15" t="n">
+        <v>79.0278</v>
       </c>
     </row>
     <row r="16">
@@ -758,25 +662,17 @@
           <t>8656BASL172.CEL</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>246.1988</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>186.6888</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>130.0336</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.0817</t>
-        </is>
+      <c r="B16" t="n">
+        <v>3.6809</v>
+      </c>
+      <c r="C16" t="n">
+        <v>246.1988</v>
+      </c>
+      <c r="D16" t="n">
+        <v>186.6888</v>
+      </c>
+      <c r="E16" t="n">
+        <v>130.0336</v>
       </c>
     </row>
     <row r="17">
@@ -785,25 +681,17 @@
           <t>9174BASL175.CEL</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>212.6018</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>137.2053</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>90.0921</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B17" t="n">
+        <v>0.3981</v>
+      </c>
+      <c r="C17" t="n">
+        <v>212.6018</v>
+      </c>
+      <c r="D17" t="n">
+        <v>137.2053</v>
+      </c>
+      <c r="E17" t="n">
+        <v>90.0921</v>
       </c>
     </row>
     <row r="18">
@@ -812,25 +700,17 @@
           <t>7363RRMS176.CEL</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>193.9777</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>127.4426</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>82.3668</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0.0817</t>
-        </is>
+      <c r="B18" t="n">
+        <v>2.1278</v>
+      </c>
+      <c r="C18" t="n">
+        <v>193.9777</v>
+      </c>
+      <c r="D18" t="n">
+        <v>127.4426</v>
+      </c>
+      <c r="E18" t="n">
+        <v>82.3668</v>
       </c>
     </row>
     <row r="19">
@@ -839,25 +719,17 @@
           <t>9753BASL178.CEL</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159.6648</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>120.2449</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>78.8450</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0.4617</v>
+      </c>
+      <c r="C19" t="n">
+        <v>159.6648</v>
+      </c>
+      <c r="D19" t="n">
+        <v>120.2449</v>
+      </c>
+      <c r="E19" t="n">
+        <v>78.845</v>
       </c>
     </row>
     <row r="20">
@@ -866,25 +738,17 @@
           <t>10818RRMS198.CEL</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>184.7561</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>131.2809</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>80.8581</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B20" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="C20" t="n">
+        <v>184.7561</v>
+      </c>
+      <c r="D20" t="n">
+        <v>131.2809</v>
+      </c>
+      <c r="E20" t="n">
+        <v>80.85809999999999</v>
       </c>
     </row>
     <row r="21">
@@ -893,25 +757,17 @@
           <t>12950NMS198.CEL</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>255.6389</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>147.4114</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>94.1597</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B21" t="n">
+        <v>0.6266</v>
+      </c>
+      <c r="C21" t="n">
+        <v>255.6389</v>
+      </c>
+      <c r="D21" t="n">
+        <v>147.4114</v>
+      </c>
+      <c r="E21" t="n">
+        <v>94.1597</v>
       </c>
     </row>
     <row r="22">
@@ -920,25 +776,17 @@
           <t>13053NMS198.CEL</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>198.8735</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>124.9917</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>78.5864</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.2531</t>
-        </is>
+      <c r="B22" t="n">
+        <v>1.9327</v>
+      </c>
+      <c r="C22" t="n">
+        <v>198.8735</v>
+      </c>
+      <c r="D22" t="n">
+        <v>124.9917</v>
+      </c>
+      <c r="E22" t="n">
+        <v>78.5864</v>
       </c>
     </row>
     <row r="23">
@@ -947,25 +795,17 @@
           <t>13503NMS208.CEL</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>202.6262</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>151.4016</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>87.8454</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B23" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="C23" t="n">
+        <v>202.6262</v>
+      </c>
+      <c r="D23" t="n">
+        <v>151.4016</v>
+      </c>
+      <c r="E23" t="n">
+        <v>87.8454</v>
       </c>
     </row>
     <row r="24">
@@ -974,25 +814,17 @@
           <t>13505NMS208.CEL</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>157.7686</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>120.6773</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>70.9956</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>0.1800</t>
-        </is>
+      <c r="B24" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C24" t="n">
+        <v>157.7686</v>
+      </c>
+      <c r="D24" t="n">
+        <v>120.6773</v>
+      </c>
+      <c r="E24" t="n">
+        <v>70.9956</v>
       </c>
     </row>
     <row r="25">
@@ -1001,25 +833,17 @@
           <t>13512NMS208.CEL</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>220.0505</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>158.5697</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>101.2436</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.6000</t>
-        </is>
+      <c r="B25" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="C25" t="n">
+        <v>220.0505</v>
+      </c>
+      <c r="D25" t="n">
+        <v>158.5697</v>
+      </c>
+      <c r="E25" t="n">
+        <v>101.2436</v>
       </c>
     </row>
     <row r="26">
@@ -1028,25 +852,17 @@
           <t>7351NMS208.CEL</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>196.1052</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>141.5003</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>76.1645</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B26" t="n">
+        <v>24.13</v>
+      </c>
+      <c r="C26" t="n">
+        <v>196.1052</v>
+      </c>
+      <c r="D26" t="n">
+        <v>141.5003</v>
+      </c>
+      <c r="E26" t="n">
+        <v>76.1645</v>
       </c>
     </row>
     <row r="27">
@@ -1055,25 +871,17 @@
           <t>606REL45.CEL</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>204.8632</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>133.0659</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>82.6424</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1.0600</t>
-        </is>
+      <c r="B27" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="C27" t="n">
+        <v>204.8632</v>
+      </c>
+      <c r="D27" t="n">
+        <v>133.0659</v>
+      </c>
+      <c r="E27" t="n">
+        <v>82.64239999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1082,25 +890,17 @@
           <t>4193GA108.CEL</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>149.9382</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>154.8172</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>90.7400</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B28" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C28" t="n">
+        <v>149.9382</v>
+      </c>
+      <c r="D28" t="n">
+        <v>154.8172</v>
+      </c>
+      <c r="E28" t="n">
+        <v>90.73999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1109,25 +909,17 @@
           <t>1794CIS150.CEL</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>169.1263</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>127.2076</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>80.0425</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>0.1100</t>
-        </is>
+      <c r="B29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="C29" t="n">
+        <v>169.1263</v>
+      </c>
+      <c r="D29" t="n">
+        <v>127.2076</v>
+      </c>
+      <c r="E29" t="n">
+        <v>80.0425</v>
       </c>
     </row>
     <row r="30">
@@ -1136,25 +928,17 @@
           <t>12907NMS200.CEL</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>189.3454</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>138.5670</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>82.0108</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B30" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C30" t="n">
+        <v>189.3454</v>
+      </c>
+      <c r="D30" t="n">
+        <v>138.567</v>
+      </c>
+      <c r="E30" t="n">
+        <v>82.0108</v>
       </c>
     </row>
     <row r="31">
@@ -1163,25 +947,17 @@
           <t>10954RRMS208.CEL</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>162.5955</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>119.2904</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>69.2924</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>4.1000</t>
-        </is>
+      <c r="B31" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>162.5955</v>
+      </c>
+      <c r="D31" t="n">
+        <v>119.2904</v>
+      </c>
+      <c r="E31" t="n">
+        <v>69.2924</v>
       </c>
     </row>
     <row r="32">
@@ -1190,25 +966,17 @@
           <t>2032PR58.CEL</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>122.0524</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>134.2185</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>81.5459</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B32" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C32" t="n">
+        <v>122.0524</v>
+      </c>
+      <c r="D32" t="n">
+        <v>134.2185</v>
+      </c>
+      <c r="E32" t="n">
+        <v>81.5459</v>
       </c>
     </row>
     <row r="33">
@@ -1217,25 +985,17 @@
           <t>3118PR58.CEL</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>200.5425</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>151.8096</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>103.9744</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.0900</t>
-        </is>
+      <c r="B33" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C33" t="n">
+        <v>200.5425</v>
+      </c>
+      <c r="D33" t="n">
+        <v>151.8096</v>
+      </c>
+      <c r="E33" t="n">
+        <v>103.9744</v>
       </c>
     </row>
     <row r="34">
@@ -1244,25 +1004,17 @@
           <t>9150BASL175.CEL</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>238.2501</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>148.9325</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>84.1078</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C34" t="n">
+        <v>238.2501</v>
+      </c>
+      <c r="D34" t="n">
+        <v>148.9325</v>
+      </c>
+      <c r="E34" t="n">
+        <v>84.1078</v>
       </c>
     </row>
     <row r="35">
@@ -1271,25 +1023,17 @@
           <t>9603PROBMS176.CEL</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>232.0607</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>141.6131</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>86.5281</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>232.0607</v>
+      </c>
+      <c r="D35" t="n">
+        <v>141.6131</v>
+      </c>
+      <c r="E35" t="n">
+        <v>86.52809999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1298,25 +1042,17 @@
           <t>9411BASL178.CEL</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>211.1325</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>147.2581</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>87.3843</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
+      <c r="B36" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>211.1325</v>
+      </c>
+      <c r="D36" t="n">
+        <v>147.2581</v>
+      </c>
+      <c r="E36" t="n">
+        <v>87.3843</v>
       </c>
     </row>
     <row r="37">
@@ -1325,25 +1061,17 @@
           <t>11135RRMS198.CEL</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>131.6989</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>117.1403</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>74.9532</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>0.1000</t>
-        </is>
+      <c r="B37" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C37" t="n">
+        <v>131.6989</v>
+      </c>
+      <c r="D37" t="n">
+        <v>117.1403</v>
+      </c>
+      <c r="E37" t="n">
+        <v>74.9532</v>
       </c>
     </row>
     <row r="38">
@@ -1352,25 +1080,17 @@
           <t>1343AV55.CEL</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>217.5220</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>150.9731</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>81.2411</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>217.522</v>
+      </c>
+      <c r="D38" t="n">
+        <v>150.9731</v>
+      </c>
+      <c r="E38" t="n">
+        <v>81.2411</v>
       </c>
     </row>
     <row r="39">
@@ -1379,25 +1099,17 @@
           <t>1823PR58.CEL</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>235.6579</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>187.7796</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>88.0843</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>235.6579</v>
+      </c>
+      <c r="D39" t="n">
+        <v>187.7796</v>
+      </c>
+      <c r="E39" t="n">
+        <v>88.0843</v>
       </c>
     </row>
     <row r="40">
@@ -1406,25 +1118,17 @@
           <t>2614PR58.CEL</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>180.5988</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>128.5679</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>78.7788</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.3500</t>
-        </is>
+      <c r="B40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C40" t="n">
+        <v>180.5988</v>
+      </c>
+      <c r="D40" t="n">
+        <v>128.5679</v>
+      </c>
+      <c r="E40" t="n">
+        <v>78.7788</v>
       </c>
     </row>
     <row r="41">
@@ -1433,25 +1137,17 @@
           <t>8636BASL171.CEL</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>210.5728</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>143.0217</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>88.6522</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
+      <c r="B41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>210.5728</v>
+      </c>
+      <c r="D41" t="n">
+        <v>143.0217</v>
+      </c>
+      <c r="E41" t="n">
+        <v>88.65219999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1460,25 +1156,17 @@
           <t>8669BASL172.CEL</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>180.9355</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>134.4234</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>78.9751</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0.3000</t>
-        </is>
+      <c r="B42" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C42" t="n">
+        <v>180.9355</v>
+      </c>
+      <c r="D42" t="n">
+        <v>134.4234</v>
+      </c>
+      <c r="E42" t="n">
+        <v>78.9751</v>
       </c>
     </row>
   </sheetData>
@@ -1508,22 +1196,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>T2V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>1053_at</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>121_at</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>1320_at</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GDV</t>
         </is>
       </c>
     </row>
@@ -1534,16 +1222,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.1916572717023675</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.5902972985849746</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-5.42454519126976</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.6949320967207672</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="3">
@@ -1553,16 +1241,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.004047350620067648</v>
       </c>
       <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>-4.248124160808767</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-0.05055163451983576</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-0.05864712514092445</v>
       </c>
     </row>
     <row r="4">
@@ -1572,16 +1260,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-0.05783540022547914</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.7024751060079105</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-2.967195850775335</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>1.844841643947308</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="5">
@@ -1591,16 +1279,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.1482525366403608</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.174436609652677</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-1.596569517942229</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2.546525849109486</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.05016910935738443</v>
       </c>
     </row>
     <row r="6">
@@ -1610,16 +1298,16 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.0366967305524239</v>
+      </c>
+      <c r="C6" t="n">
         <v>4.260100528848443</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-0.8100465997946402</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>2.629016230539913</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="7">
@@ -1629,16 +1317,16 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0.1103156708004509</v>
+      </c>
+      <c r="C7" t="n">
         <v>1.312949640287769</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-5.786220151120219</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.6339465436848677</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="8">
@@ -1648,16 +1336,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0.1113077790304397</v>
+      </c>
+      <c r="C8" t="n">
         <v>4.663240268712181</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-4.220467051049138</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>1.548067368206488</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.06228861330326944</v>
       </c>
     </row>
     <row r="9">
@@ -1667,16 +1355,16 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0.2178128523111612</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.218459669350613</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-3.915633309638509</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>1.080872423369939</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.02570462232243517</v>
       </c>
     </row>
     <row r="10">
@@ -1686,16 +1374,16 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0.05393461104847801</v>
+      </c>
+      <c r="C10" t="n">
         <v>3.480394492353136</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-4.109878103362017</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.914133564348867</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="11">
@@ -1705,16 +1393,16 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>-0.03315670800450957</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.959347753585213</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>-5.038188136798023</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1.063622697276224</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="12">
@@ -1724,16 +1412,16 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0.4857948139797069</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.873362237362429</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-4.772148066240144</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>0.8556832369353068</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-0.02356257046223224</v>
       </c>
     </row>
     <row r="13">
@@ -1743,16 +1431,16 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0.1978128523111612</v>
+      </c>
+      <c r="C13" t="n">
         <v>2.840654628614991</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-2.821894005212847</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1.023288404209239</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="14">
@@ -1762,16 +1450,16 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0.3473393461104847</v>
+      </c>
+      <c r="C14" t="n">
         <v>11.46560102911049</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>4.701537529947593</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>7.521339210640303</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-0.05843291995490416</v>
       </c>
     </row>
     <row r="15">
@@ -1781,16 +1469,16 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>-0.02276211950394588</v>
+      </c>
+      <c r="C15" t="n">
         <v>7.463862022964409</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-1.812363425743089</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>2.432861110403343</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="16">
@@ -1800,16 +1488,16 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0.1722435174746336</v>
+      </c>
+      <c r="C16" t="n">
         <v>5.245545285625804</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-3.097504146591886</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>1.448671236018039</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-0.05843291995490416</v>
       </c>
     </row>
     <row r="17">
@@ -1819,16 +1507,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>-0.01559188275084554</v>
+      </c>
+      <c r="C17" t="n">
         <v>1.158535423316978</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-4.044993813021601</v>
       </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
       <c r="E17" t="n">
-        <v>-0.06764374295377676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1838,16 +1526,16 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>-0.0209695603156708</v>
+      </c>
+      <c r="C18" t="n">
         <v>4.147160417361476</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-2.592238633072681</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>1.25646546232833</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="19">
@@ -1857,16 +1545,16 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0.002998872604284111</v>
+      </c>
+      <c r="C19" t="n">
         <v>12.59001143456096</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>-0.4688544875338955</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>2.951066323540652</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="20">
@@ -1876,16 +1564,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0.1502480270574972</v>
+      </c>
+      <c r="C20" t="n">
         <v>5.828684072609462</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>-3.420135323697432</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.9670548067368205</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-0.03910935738444193</v>
       </c>
     </row>
     <row r="21">
@@ -1895,16 +1583,16 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>0.4926719278466741</v>
+      </c>
+      <c r="C21" t="n">
         <v>6.27566820715613</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>0.05640681357449551</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>2.146635411623818</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="22">
@@ -1914,16 +1602,16 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0.4487034949267192</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.9326790223450374</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>-3.988073611878984</v>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
       <c r="E22" t="n">
-        <v>-0.04735062006764373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1933,16 +1621,16 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>1.384441939120631</v>
+      </c>
+      <c r="C23" t="n">
         <v>8.351076754490446</v>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
       <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
         <v>3.853542945957652</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1952,16 +1640,16 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>2.652762119503945</v>
+      </c>
+      <c r="C24" t="n">
         <v>5.498951831911953</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>-1.246978911618349</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>0.6585089306189016</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="25">
@@ -1971,16 +1659,16 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0.9267192784667418</v>
+      </c>
+      <c r="C25" t="n">
         <v>6.542117299537853</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>-2.357265092278116</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>1.483782199913368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.05186020293122887</v>
       </c>
     </row>
     <row r="26">
@@ -1990,16 +1678,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.4261555806087936</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.5060290129794927</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>2.515402451142761</v>
-      </c>
-      <c r="E26" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="27">
@@ -2009,16 +1697,16 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>0.09244644870349492</v>
+      </c>
+      <c r="C27" t="n">
         <v>2.28549478298156</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>-3.12843903851722</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>1.152559431294112</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-0.05524239007891769</v>
       </c>
     </row>
     <row r="28">
@@ -2028,16 +1716,16 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0.2243517474633596</v>
+      </c>
+      <c r="C28" t="n">
         <v>4.693791986278528</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>-1.633112181765519</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>1.403317451015365</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="29">
@@ -2047,16 +1735,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.507611129639334</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>-4.170642129373652</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>-0.2169847376869563</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.3945885005636978</v>
       </c>
     </row>
     <row r="30">
@@ -2066,16 +1754,16 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>0.6629086809470124</v>
+      </c>
+      <c r="C30" t="n">
         <v>-3.321477917004143</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>-2.205539320222195</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>1.34408999413968</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="31">
@@ -2085,16 +1773,16 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>-0.04171364148816234</v>
+      </c>
+      <c r="C31" t="n">
         <v>6.027478679308207</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>0.1101150514703944</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>4.201442148444467</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-0.05749718151071025</v>
       </c>
     </row>
     <row r="32">
@@ -2104,16 +1792,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>-0.02931228861330326</v>
+      </c>
+      <c r="C32" t="n">
         <v>10.51883129258183</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>-0.2686201721822891</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>1.670471628404718</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="33">
@@ -2123,16 +1811,16 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>-0.06764374295377676</v>
+      </c>
+      <c r="C33" t="n">
         <v>9.781611796655389</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>-1.232130163494189</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>1.978813667286671</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="34">
@@ -2142,16 +1830,16 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>-0.05749718151071025</v>
+      </c>
+      <c r="C34" t="n">
         <v>7.288853685263708</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>-0.4890345680962488</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>2.087892068183555</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-0.06313416009019164</v>
       </c>
     </row>
     <row r="35">
@@ -2161,16 +1849,16 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>-0.03382187147688838</v>
+      </c>
+      <c r="C35" t="n">
         <v>-2.172483205488587</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>-4.453676644814771</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>0.5041914031645728</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-0.05636978579481397</v>
       </c>
     </row>
     <row r="36">
@@ -2180,16 +1868,16 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>-0.06764374295377676</v>
+      </c>
+      <c r="C36" t="n">
         <v>8.049907094192195</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
       <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>1.305259000687951</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="37">
@@ -2199,16 +1887,16 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>-0.02254791431792558</v>
+      </c>
+      <c r="C37" t="n">
         <v>10.21007432464624</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>4.84512808361634</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>2.177070858919153</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="38">
@@ -2218,16 +1906,16 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0.07891770011273957</v>
+      </c>
+      <c r="C38" t="n">
         <v>3.651984372766689</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>-2.949372087512823</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>0.9915662343618628</v>
-      </c>
-      <c r="E38" t="n">
-        <v>-0.02818489289740699</v>
       </c>
     </row>
     <row r="39">
@@ -2237,16 +1925,16 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>0.1397970687711387</v>
+      </c>
+      <c r="C39" t="n">
         <v>7.222187812663775</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>-1.046705104915351</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>2.249420337860217</v>
-      </c>
-      <c r="E39" t="n">
-        <v>-0.06764374295377676</v>
       </c>
     </row>
     <row r="40">
@@ -2256,16 +1944,16 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
         <v>3.692088713135451</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>-2.178566727220066</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>1.016574515249573</v>
-      </c>
-      <c r="E40" t="n">
-        <v>-0.03382187147688838</v>
       </c>
     </row>
   </sheetData>
@@ -2295,22 +1983,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>T2V</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>1053_at</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>121_at</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>1320_at</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GDV</t>
         </is>
       </c>
     </row>
@@ -2321,10 +2009,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.1916572717023675</v>
+      </c>
+      <c r="C2" t="n">
         <v>0.5902972985849746</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2340,10 +2028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.004047350620067648</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2359,16 +2047,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.7024751060079105</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2378,16 +2066,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.1482525366403608</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2397,16 +2085,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.0366967305524239</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2416,16 +2104,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.1103156708004509</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.6339465436848677</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2435,16 +2123,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0.1113077790304397</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2454,16 +2142,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.2178128523111612</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -2473,16 +2161,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0.05393461104847801</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2492,16 +2180,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2511,16 +2199,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.4857948139797069</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.8556832369353068</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2530,16 +2218,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0.1978128523111612</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2549,7 +2237,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0.3473393461104847</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2558,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2568,16 +2256,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2587,16 +2275,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0.1722435174746336</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2606,16 +2294,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2625,16 +2313,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2644,16 +2332,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.002998872604284111</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2663,16 +2351,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0.1502480270574972</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.9670548067368205</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2682,16 +2370,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0.4926719278466741</v>
       </c>
       <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.05640681357449551</v>
       </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2701,10 +2389,10 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0.4487034949267192</v>
+      </c>
+      <c r="C22" t="n">
         <v>0.9326790223450374</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2729,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2742,13 +2430,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.6585089306189016</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2758,16 +2446,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.9267192784667418</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.05186020293122887</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2777,16 +2465,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.4261555806087936</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.5060290129794927</v>
       </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2796,16 +2484,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0.09244644870349492</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2815,16 +2503,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0.2243517474633596</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2837,13 +2525,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3945885005636978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2853,16 +2541,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.6629086809470124</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2872,16 +2560,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.1101150514703944</v>
       </c>
-      <c r="D31" t="n">
-        <v>1</v>
-      </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -2891,16 +2579,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2910,16 +2598,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2929,16 +2617,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2954,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.5041914031645728</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2967,16 +2655,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2986,7 +2674,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -2995,7 +2683,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3005,16 +2693,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0.07891770011273957</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.9915662343618628</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3024,16 +2712,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.1397970687711387</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3043,16 +2731,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
